--- a/Truesight_E2E_Patrol/src/test/resources/excel/TruesightData.xlsx
+++ b/Truesight_E2E_Patrol/src/test/resources/excel/TruesightData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1041">
   <si>
     <t>Serial</t>
   </si>
@@ -3134,14 +3134,29 @@
     <t>bsssl2prdwin01</t>
   </si>
   <si>
-    <t>gc-test-server</t>
+    <t>%PSL set("NT_HEALTH/NT_HEALTH/DiskUsage/value",(98));</t>
+  </si>
+  <si>
+    <t>%PSL set("NT_HEALTH/NT_HEALTH/MemoryUsage/value",(98));</t>
+  </si>
+  <si>
+    <t>%PSL set("NT_REGISTRY/RegistryQuotaInUse/value",(98));</t>
+  </si>
+  <si>
+    <t>%PSL set("NT_CPU/CPU_0/CPUprcrProcessorTimePercent/value",(98));</t>
+  </si>
+  <si>
+    <t>no agents found</t>
+  </si>
+  <si>
+    <t>Disconnected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3197,8 +3212,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3217,8 +3238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3265,11 +3292,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3285,9 +3327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3325,11 +3364,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3943,268 +4087,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>956</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>958</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>959</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>960</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>962</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>964</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>965</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>966</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>927</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>929</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>935</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>936</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>937</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B25" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>943</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>947</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>970</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>32</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>968</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>1035</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
+      <c r="E41" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>951</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>954</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  <conditionalFormatting sqref="B2:B6">
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B15">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B21">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4216,948 +4678,948 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D39"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69" style="21" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>973</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>974</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>983</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>984</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>985</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>987</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>988</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>962</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>963</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>990</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>964</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>991</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>992</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>993</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>994</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>929</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>996</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>930</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>997</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>998</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>932</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>933</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>1000</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>1001</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>935</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>1002</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>936</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>1003</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>937</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>1004</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>938</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>1005</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>943</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>1006</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>944</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>1007</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>945</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>1008</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>946</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>1009</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>1010</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="D31" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>1012</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>939</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>1013</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>940</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>1014</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>941</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>1015</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>942</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>1016</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>1017</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>968</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>1018</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>1019</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="19" t="s">
+      <c r="D39" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>926</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>1020</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>950</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>1021</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>1022</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="17" t="s">
+      <c r="D43" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="D44" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>954</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>1024</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="D45" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17"/>
-      <c r="C46" s="23" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="22" t="s">
         <v>1025</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="23" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="E47" s="19"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>1027</v>
       </c>
-      <c r="E48" s="19"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="50" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="52" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="53" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="22" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="23" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="56" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="57" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="58" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="59" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="60" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="61" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="62" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="63" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="22" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="64" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="65" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="22" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="67" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="68" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="22" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="69" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="22" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="70" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="22" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -5170,8 +5632,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  <conditionalFormatting sqref="B128:C1048576 B1:C83">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5204,7 +5666,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5212,7 +5674,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5220,7 +5682,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5228,7 +5690,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5236,7 +5698,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5244,7 +5706,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5252,7 +5714,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5260,7 +5722,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5268,7 +5730,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5276,7 +5738,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5284,7 +5746,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5292,7 +5754,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5300,7 +5762,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5308,7 +5770,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5316,7 +5778,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5324,7 +5786,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5332,7 +5794,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5340,7 +5802,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5348,7 +5810,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5356,7 +5818,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5364,7 +5826,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -5372,7 +5834,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -5380,7 +5842,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5407,170 +5869,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+      <c r="A1" s="12">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>11</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>12</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>15</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>18</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>20</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>21</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>954</v>
       </c>
     </row>
@@ -5590,7 +6052,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="145.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
@@ -11753,35 +12215,35 @@
       </c>
     </row>
     <row r="567" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="10">
+      <c r="A567" s="9">
         <v>19</v>
       </c>
       <c r="B567" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D567" s="12" t="s">
+      <c r="D567" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="10">
+      <c r="A568" s="9">
         <v>20</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D568" s="12" t="s">
+      <c r="D568" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="570" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="10">
+      <c r="A570" s="9">
         <v>22</v>
       </c>
       <c r="B570" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D570" s="12" t="s">
+      <c r="D570" s="11" t="s">
         <v>3</v>
       </c>
     </row>
